--- a/tutorial/lec10_excel_file.xlsx
+++ b/tutorial/lec10_excel_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmyeum\Dropbox\__GitHub\AE_ENVE_GEOE_121\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362460CC-0B22-4538-BF33-55B0075ACDD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF94CB2-CC13-4E3E-AFD6-B0BCA57146CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B9361CD9-BFFB-450E-AC04-560EA8FA253B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Program</t>
   </si>
@@ -147,6 +147,69 @@
   </si>
   <si>
     <t>jpark</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Browns</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>jsmith</t>
+  </si>
+  <si>
+    <t>jjohnson</t>
+  </si>
+  <si>
+    <t>jlee</t>
+  </si>
+  <si>
+    <t>rwilliams</t>
+  </si>
+  <si>
+    <t>mbrowns</t>
+  </si>
+  <si>
+    <t>ddavis</t>
+  </si>
+  <si>
+    <t>rlopez</t>
   </si>
 </sst>
 </file>
@@ -498,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4F4A73-3AED-456E-B922-0B3BDF2CABE4}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A2" sqref="A2:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,22 +594,22 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -569,22 +632,22 @@
         <v>30</v>
       </c>
       <c r="G2">
+        <v>80</v>
+      </c>
+      <c r="H2">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <v>61</v>
+      </c>
+      <c r="J2">
+        <v>77</v>
+      </c>
+      <c r="K2">
         <v>63</v>
       </c>
-      <c r="H2">
+      <c r="L2">
         <v>99</v>
-      </c>
-      <c r="I2">
-        <v>80</v>
-      </c>
-      <c r="J2">
-        <v>90</v>
-      </c>
-      <c r="K2">
-        <v>61</v>
-      </c>
-      <c r="L2">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -607,22 +670,22 @@
         <v>30</v>
       </c>
       <c r="G3">
+        <v>86</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="I3">
+        <v>63</v>
+      </c>
+      <c r="J3">
+        <v>75</v>
+      </c>
+      <c r="K3">
         <v>71</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>79</v>
-      </c>
-      <c r="I3">
-        <v>86</v>
-      </c>
-      <c r="J3">
-        <v>76</v>
-      </c>
-      <c r="K3">
-        <v>63</v>
-      </c>
-      <c r="L3">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -645,22 +708,22 @@
         <v>31</v>
       </c>
       <c r="G4">
+        <v>61</v>
+      </c>
+      <c r="H4">
+        <v>86</v>
+      </c>
+      <c r="I4">
+        <v>93</v>
+      </c>
+      <c r="J4">
+        <v>91</v>
+      </c>
+      <c r="K4">
         <v>82</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>92</v>
-      </c>
-      <c r="I4">
-        <v>61</v>
-      </c>
-      <c r="J4">
-        <v>86</v>
-      </c>
-      <c r="K4">
-        <v>93</v>
-      </c>
-      <c r="L4">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -683,22 +746,22 @@
         <v>30</v>
       </c>
       <c r="G5">
+        <v>94</v>
+      </c>
+      <c r="H5">
+        <v>67</v>
+      </c>
+      <c r="I5">
+        <v>88</v>
+      </c>
+      <c r="J5">
+        <v>92</v>
+      </c>
+      <c r="K5">
         <v>99</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>65</v>
-      </c>
-      <c r="I5">
-        <v>94</v>
-      </c>
-      <c r="J5">
-        <v>67</v>
-      </c>
-      <c r="K5">
-        <v>88</v>
-      </c>
-      <c r="L5">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -721,22 +784,22 @@
         <v>31</v>
       </c>
       <c r="G6">
+        <v>98</v>
+      </c>
+      <c r="H6">
+        <v>88</v>
+      </c>
+      <c r="I6">
+        <v>73</v>
+      </c>
+      <c r="J6">
+        <v>67</v>
+      </c>
+      <c r="K6">
         <v>99</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>77</v>
-      </c>
-      <c r="I6">
-        <v>98</v>
-      </c>
-      <c r="J6">
-        <v>88</v>
-      </c>
-      <c r="K6">
-        <v>73</v>
-      </c>
-      <c r="L6">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -759,22 +822,22 @@
         <v>30</v>
       </c>
       <c r="G7">
+        <v>87</v>
+      </c>
+      <c r="H7">
+        <v>61</v>
+      </c>
+      <c r="I7">
+        <v>98</v>
+      </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7">
         <v>66</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>97</v>
-      </c>
-      <c r="I7">
-        <v>87</v>
-      </c>
-      <c r="J7">
-        <v>61</v>
-      </c>
-      <c r="K7">
-        <v>98</v>
-      </c>
-      <c r="L7">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -797,22 +860,288 @@
         <v>31</v>
       </c>
       <c r="G8">
+        <v>91</v>
+      </c>
+      <c r="H8">
+        <v>71</v>
+      </c>
+      <c r="I8">
+        <v>61</v>
+      </c>
+      <c r="J8">
+        <v>78</v>
+      </c>
+      <c r="K8">
         <v>99</v>
       </c>
-      <c r="H8">
+      <c r="L8">
         <v>92</v>
       </c>
-      <c r="I8">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>6066153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>73</v>
+      </c>
+      <c r="H9">
+        <v>95</v>
+      </c>
+      <c r="I9">
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <v>86</v>
+      </c>
+      <c r="K9">
+        <v>80</v>
+      </c>
+      <c r="L9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2438025</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>73</v>
+      </c>
+      <c r="H10">
+        <v>74</v>
+      </c>
+      <c r="I10">
+        <v>92</v>
+      </c>
+      <c r="J10">
+        <v>88</v>
+      </c>
+      <c r="K10">
+        <v>88</v>
+      </c>
+      <c r="L10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>7336765</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>72</v>
+      </c>
+      <c r="H11">
+        <v>85</v>
+      </c>
+      <c r="I11">
         <v>91</v>
       </c>
-      <c r="J8">
-        <v>71</v>
-      </c>
-      <c r="K8">
+      <c r="J11">
+        <v>69</v>
+      </c>
+      <c r="K11">
+        <v>63</v>
+      </c>
+      <c r="L11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>6673589</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>72</v>
+      </c>
+      <c r="H12">
+        <v>72</v>
+      </c>
+      <c r="I12">
+        <v>95</v>
+      </c>
+      <c r="J12">
+        <v>92</v>
+      </c>
+      <c r="K12">
+        <v>96</v>
+      </c>
+      <c r="L12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2468821</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>70</v>
+      </c>
+      <c r="H13">
+        <v>92</v>
+      </c>
+      <c r="I13">
+        <v>72</v>
+      </c>
+      <c r="J13">
+        <v>96</v>
+      </c>
+      <c r="K13">
+        <v>92</v>
+      </c>
+      <c r="L13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1940556</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>96</v>
+      </c>
+      <c r="H14">
+        <v>92</v>
+      </c>
+      <c r="I14">
+        <v>64</v>
+      </c>
+      <c r="J14">
+        <v>99</v>
+      </c>
+      <c r="K14">
+        <v>74</v>
+      </c>
+      <c r="L14">
         <v>61</v>
       </c>
-      <c r="L8">
-        <v>78</v>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>3196479</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>98</v>
+      </c>
+      <c r="H15">
+        <v>91</v>
+      </c>
+      <c r="I15">
+        <v>66</v>
+      </c>
+      <c r="J15">
+        <v>99</v>
+      </c>
+      <c r="K15">
+        <v>99</v>
+      </c>
+      <c r="L15">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
